--- a/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/09+CADASTRO+DAS+OPÇÕES+ESPECIF+ABR.xlsx
+++ b/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/09+CADASTRO+DAS+OPÇÕES+ESPECIF+ABR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DBrizes Celestino Serviços - ME\UDEMY\Configurador de Produtos\MATERIAL DE APOIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\CodigoInteligente\Material de leitura\DownLoad1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981AB2F-E9DB-40FF-A7F9-7694406FCCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC670B8-6564-41FC-BBA4-2365CA072D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="SBS ABR" sheetId="16" r:id="rId1"/>
@@ -589,6 +589,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>26026</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>108277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B00409-507C-0C6F-7C90-DB46B1D0A37C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7531100" y="1841500"/>
+          <a:ext cx="12173576" cy="6369377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,26 +939,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7696C293-4E0A-4B61-A7DA-7CA921D830C9}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="2"/>
-    <col min="10" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="25.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="2"/>
+    <col min="10" max="12" width="8.81640625" style="1"/>
+    <col min="13" max="13" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>121</v>
       </c>
@@ -930,7 +979,7 @@
       </c>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>123</v>
       </c>
@@ -951,7 +1000,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
         <v>122</v>
@@ -970,7 +1019,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>122</v>
@@ -989,7 +1038,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="6" t="s">
         <v>122</v>
@@ -1008,7 +1057,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="6" t="s">
         <v>122</v>
@@ -1027,7 +1076,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>122</v>
@@ -1046,7 +1095,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>125</v>
       </c>
@@ -1067,7 +1116,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>122</v>
@@ -1086,7 +1135,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>122</v>
@@ -1105,7 +1154,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>122</v>
@@ -1124,7 +1173,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
         <v>122</v>
@@ -1143,7 +1192,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="6" t="s">
         <v>122</v>
@@ -1162,7 +1211,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
         <v>122</v>
@@ -1181,7 +1230,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="6" t="s">
         <v>122</v>
@@ -1200,7 +1249,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>126</v>
       </c>
@@ -1221,7 +1270,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>122</v>
@@ -1240,7 +1289,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>122</v>
@@ -1259,7 +1308,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>122</v>
@@ -1278,7 +1327,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
         <v>122</v>
@@ -1297,7 +1346,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>122</v>
@@ -1316,7 +1365,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="6" t="s">
         <v>122</v>
@@ -1335,7 +1384,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>122</v>
@@ -1354,7 +1403,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="6" t="s">
         <v>122</v>
@@ -1373,7 +1422,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
         <v>122</v>
@@ -1394,7 +1443,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>127</v>
       </c>
@@ -1417,7 +1466,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="6" t="s">
         <v>122</v>
@@ -1438,7 +1487,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>122</v>
@@ -1459,7 +1508,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>122</v>
@@ -1478,7 +1527,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>122</v>
@@ -1497,7 +1546,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
         <v>122</v>
@@ -1516,7 +1565,7 @@
       </c>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="6" t="s">
         <v>122</v>
@@ -1535,7 +1584,7 @@
       </c>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="6" t="s">
         <v>122</v>
@@ -1554,7 +1603,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="6" t="s">
         <v>122</v>
@@ -1573,7 +1622,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="6" t="s">
         <v>122</v>
@@ -1592,7 +1641,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="6" t="s">
         <v>122</v>
@@ -1611,7 +1660,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="6" t="s">
         <v>122</v>
@@ -1630,7 +1679,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="6" t="s">
         <v>122</v>
@@ -1649,7 +1698,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="6" t="s">
         <v>122</v>
@@ -1668,7 +1717,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>128</v>
       </c>
@@ -1689,7 +1738,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="6" t="s">
         <v>122</v>
@@ -1708,7 +1757,7 @@
       </c>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="6" t="s">
         <v>122</v>
@@ -1727,7 +1776,7 @@
       </c>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="6" t="s">
         <v>122</v>
@@ -1746,7 +1795,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>122</v>
@@ -1765,7 +1814,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="6" t="s">
         <v>122</v>
@@ -1784,7 +1833,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="6" t="s">
         <v>122</v>
@@ -1803,7 +1852,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>129</v>
       </c>
@@ -1824,7 +1873,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="6" t="s">
         <v>122</v>
@@ -1843,7 +1892,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="6" t="s">
         <v>122</v>
@@ -1862,7 +1911,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="6" t="s">
         <v>122</v>
@@ -1881,7 +1930,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="6" t="s">
         <v>122</v>
@@ -1900,7 +1949,7 @@
       </c>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="6" t="s">
         <v>122</v>
@@ -1919,7 +1968,7 @@
       </c>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="6" t="s">
         <v>122</v>
@@ -1938,7 +1987,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="13"/>
       <c r="B54" s="6" t="s">
         <v>122</v>
@@ -1957,25 +2006,25 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>124</v>
       </c>
@@ -1993,5 +2042,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>